--- a/biology/Médecine/Fédération_nationale_des_centres_de_lutte_contre_le_cancer/Fédération_nationale_des_centres_de_lutte_contre_le_cancer.xlsx
+++ b/biology/Médecine/Fédération_nationale_des_centres_de_lutte_contre_le_cancer/Fédération_nationale_des_centres_de_lutte_contre_le_cancer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_nationale_des_centres_de_lutte_contre_le_cancer</t>
+          <t>Fédération_nationale_des_centres_de_lutte_contre_le_cancer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Fédération nationale des centres de lutte contre le cancer (FNCLCC) regroupe dans une structure communautaire créée en 1964 les vingt centres régionaux de lutte contre le cancer.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_nationale_des_centres_de_lutte_contre_le_cancer</t>
+          <t>Fédération_nationale_des_centres_de_lutte_contre_le_cancer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une association loi de 1901[2] sans but lucratif regroupée en organisation patronale[1]. La fédération médicale et scientifique a pour mission de défendre les intérêts des CRLCC, en particulier auprès des ministères de tutelle, et de développer avec eux des projets visant à faire « exceller » la prise en charge des personnes malades (excellence managériale, excellence médicale et scientifique)[3]. Elle a notamment pour but :
-de développer des projets d'intérêt général concernant l'ensemble des missions de soins, d'enseignement et de recherche qui sont confiées par le ministère de la santé aux CRLCC[2] ;
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une association loi de 1901 sans but lucratif regroupée en organisation patronale. La fédération médicale et scientifique a pour mission de défendre les intérêts des CRLCC, en particulier auprès des ministères de tutelle, et de développer avec eux des projets visant à faire « exceller » la prise en charge des personnes malades (excellence managériale, excellence médicale et scientifique). Elle a notamment pour but :
+de développer des projets d'intérêt général concernant l'ensemble des missions de soins, d'enseignement et de recherche qui sont confiées par le ministère de la santé aux CRLCC ;
 d'examiner les questions qui concernent les Centres sur le plan juridique et social ;
 de représenter l'ensemble des Centres chaque fois qu'une action collective s'impose en ces matières.
-La FNCLCC est une structure ayant pour but de créer une synergie pour faire reculer le cancer et pour défendre des projets de dimension française ou européenne[3].
-En 2010, La Fédération et les Centres de lutte contre le cancer ont créé le groupement de coopération sanitaire de moyens UNICANCER[4]. Ce Groupement, piloté par la Fédération, a pour principal objectif de mutualiser les moyens et compétences entre les Centres[5].
+La FNCLCC est une structure ayant pour but de créer une synergie pour faire reculer le cancer et pour défendre des projets de dimension française ou européenne.
+En 2010, La Fédération et les Centres de lutte contre le cancer ont créé le groupement de coopération sanitaire de moyens UNICANCER. Ce Groupement, piloté par la Fédération, a pour principal objectif de mutualiser les moyens et compétences entre les Centres.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_nationale_des_centres_de_lutte_contre_le_cancer</t>
+          <t>Fédération_nationale_des_centres_de_lutte_contre_le_cancer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Présidents</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1983-1997 : Henri Pujol</t>
         </is>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_nationale_des_centres_de_lutte_contre_le_cancer</t>
+          <t>Fédération_nationale_des_centres_de_lutte_contre_le_cancer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +594,12 @@
           <t>Affiliations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>European Hospital and Healthcare Federation[6]
-International Hospital Federation[6]</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>European Hospital and Healthcare Federation
+International Hospital Federation</t>
         </is>
       </c>
     </row>
